--- a/cronograma particular de necesidades semana santa.xlsx
+++ b/cronograma particular de necesidades semana santa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto Incinerador\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CETI\Proyecto\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4922528-DE62-4E7C-8294-1D779B07B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1F61EC-FD2E-4A85-B17A-EB146AD7D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DE0AD70-A545-456A-A6FD-8CA6C103B2AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DE0AD70-A545-456A-A6FD-8CA6C103B2AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -529,17 +529,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC9640C-38A0-4603-9EC7-A6BF5FD248EB}">
   <dimension ref="B3:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -547,421 +547,421 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="3"/>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="3"/>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="3"/>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
